--- a/TestData/AmortTemplateUS.xlsx
+++ b/TestData/AmortTemplateUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="AmortTemplateGrid" sheetId="2" r:id="rId1"/>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/AmortTemplateUS.xlsx
+++ b/TestData/AmortTemplateUS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="45">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -51,31 +51,7 @@
     <t>FirstMonthAmortPercent</t>
   </si>
   <si>
-    <t>ProjectionScheduleName</t>
-  </si>
-  <si>
-    <t>IsLinkSeries</t>
-  </si>
-  <si>
     <t>IsMultipleWindowFlag</t>
-  </si>
-  <si>
-    <t>IsUseDaysToCalculateMonthCountFlag</t>
-  </si>
-  <si>
-    <t>IsUseProductionYearLogicFlag</t>
-  </si>
-  <si>
-    <t>UserAdded</t>
-  </si>
-  <si>
-    <t>DateAdded</t>
-  </si>
-  <si>
-    <t>UserUpdated</t>
-  </si>
-  <si>
-    <t>DateUpdated</t>
   </si>
   <si>
     <t>Original Movies</t>
@@ -84,19 +60,7 @@
     <t>Series</t>
   </si>
   <si>
-    <t>Straight Line</t>
-  </si>
-  <si>
-    <t>Hallmark</t>
-  </si>
-  <si>
-    <t>Air Date (Projected Date)</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>CONV</t>
   </si>
   <si>
     <t>AmortSectionNo</t>
@@ -104,14 +68,104 @@
   <si>
     <t>AmortSectionPercent</t>
   </si>
+  <si>
+    <t>Syndicated Series - (SCI FI)</t>
+  </si>
+  <si>
+    <t>Original Series</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Acquired Movies</t>
+  </si>
+  <si>
+    <t>Acquired MiniSeries</t>
+  </si>
+  <si>
+    <t>Documentary</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Original MiniSeries</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Acquired Series</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Episode</t>
+  </si>
+  <si>
+    <t>Acquired Specials</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Bio/Clip (E)</t>
+  </si>
+  <si>
+    <t>Acquired Originals</t>
+  </si>
+  <si>
+    <t>Orig. Series (Accel 1 Yr. by Qtr)</t>
+  </si>
+  <si>
+    <t>Original Series (Season 4)</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Topicals</t>
+  </si>
+  <si>
+    <t>Acquired Link Series</t>
+  </si>
+  <si>
+    <t>Pilot 80-20</t>
+  </si>
+  <si>
+    <t>Original Series 1 yr</t>
+  </si>
+  <si>
+    <t>AmortTemplateNo</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Wrestling</t>
+  </si>
+  <si>
+    <t>Original Series (Season 2-3)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +197,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,141 +478,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>23.33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1">
-        <v>41830</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>41830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,43 +668,4721 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4</v>
+      </c>
+      <c r="F105" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>41</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>41</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>51</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>51</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3</v>
+      </c>
+      <c r="F134" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>51</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>51</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="1">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>51</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>51</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="1">
+        <v>2</v>
+      </c>
+      <c r="F141" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>51</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3</v>
+      </c>
+      <c r="F142" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>51</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="1">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>51</v>
+      </c>
+      <c r="B144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>51</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="1">
+        <v>4</v>
+      </c>
+      <c r="F147" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>51</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>51</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>51</v>
+      </c>
+      <c r="B150" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>51</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>51</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>51</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>51</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F154" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>51</v>
+      </c>
+      <c r="B155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="1">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>51</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>51</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="1">
+        <v>3</v>
+      </c>
+      <c r="F158" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>51</v>
+      </c>
+      <c r="B159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="1">
+        <v>4</v>
+      </c>
+      <c r="F159" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>51</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2</v>
+      </c>
+      <c r="F161" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>51</v>
+      </c>
+      <c r="B162" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="1">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>51</v>
+      </c>
+      <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>51</v>
+      </c>
+      <c r="B165" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2</v>
+      </c>
+      <c r="F165" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>51</v>
+      </c>
+      <c r="B166" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="1">
+        <v>3</v>
+      </c>
+      <c r="F166" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>51</v>
+      </c>
+      <c r="B167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4</v>
+      </c>
+      <c r="F167" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>51</v>
+      </c>
+      <c r="B168" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="1">
+        <v>2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>51</v>
+      </c>
+      <c r="B170" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="1">
+        <v>3</v>
+      </c>
+      <c r="F170" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="1">
+        <v>4</v>
+      </c>
+      <c r="F171" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>51</v>
+      </c>
+      <c r="B173" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>51</v>
+      </c>
+      <c r="B174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="1">
+        <v>3</v>
+      </c>
+      <c r="F174" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>51</v>
+      </c>
+      <c r="B175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="1">
+        <v>4</v>
+      </c>
+      <c r="F175" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>68</v>
+      </c>
+      <c r="B176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>68</v>
+      </c>
+      <c r="B177" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="1">
+        <v>2</v>
+      </c>
+      <c r="F177" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>68</v>
+      </c>
+      <c r="B178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3</v>
+      </c>
+      <c r="F178" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>68</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="1">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>73</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2</v>
+      </c>
+      <c r="F181" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>73</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>73</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="1">
+        <v>2</v>
+      </c>
+      <c r="F183" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>73</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="1">
+        <v>2</v>
+      </c>
+      <c r="F185" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>73</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>73</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="1">
+        <v>2</v>
+      </c>
+      <c r="F187" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>73</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>73</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>29</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="1">
+        <v>2</v>
+      </c>
+      <c r="F189" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2</v>
+      </c>
+      <c r="F191" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>73</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>73</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="1">
+        <v>2</v>
+      </c>
+      <c r="F193" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>73</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>73</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="1">
+        <v>2</v>
+      </c>
+      <c r="F195" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>73</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>73</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="1">
+        <v>2</v>
+      </c>
+      <c r="F197" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>73</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>73</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="1">
+        <v>2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>73</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>73</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="1">
+        <v>2</v>
+      </c>
+      <c r="F201" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>73</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>73</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="1">
+        <v>2</v>
+      </c>
+      <c r="F203" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>73</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>73</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="1">
+        <v>2</v>
+      </c>
+      <c r="F205" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>79</v>
+      </c>
+      <c r="B206" t="s">
+        <v>37</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>79</v>
+      </c>
+      <c r="B207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1">
+        <v>2</v>
+      </c>
+      <c r="F207" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>79</v>
+      </c>
+      <c r="B208" t="s">
+        <v>37</v>
+      </c>
+      <c r="C208" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>79</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2</v>
+      </c>
+      <c r="F209" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>79</v>
+      </c>
+      <c r="B210" t="s">
+        <v>37</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>79</v>
+      </c>
+      <c r="B211" t="s">
+        <v>37</v>
+      </c>
+      <c r="C211" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>79</v>
+      </c>
+      <c r="B212" t="s">
+        <v>37</v>
+      </c>
+      <c r="C212" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>79</v>
+      </c>
+      <c r="B213" t="s">
+        <v>37</v>
+      </c>
+      <c r="C213" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="1">
+        <v>2</v>
+      </c>
+      <c r="F213" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>79</v>
+      </c>
+      <c r="B214" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>79</v>
+      </c>
+      <c r="B215" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="1">
+        <v>2</v>
+      </c>
+      <c r="F215" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>79</v>
+      </c>
+      <c r="B216" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>79</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1">
+        <v>2</v>
+      </c>
+      <c r="F217" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>79</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>79</v>
+      </c>
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2</v>
+      </c>
+      <c r="F219" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>342</v>
+      </c>
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>342</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2</v>
+      </c>
+      <c r="F221" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>342</v>
+      </c>
+      <c r="B222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3</v>
+      </c>
+      <c r="F222" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>342</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" s="1">
+        <v>4</v>
+      </c>
+      <c r="F223" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>343</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>343</v>
+      </c>
+      <c r="B225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2</v>
+      </c>
+      <c r="F225" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>343</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="1">
+        <v>3</v>
+      </c>
+      <c r="F226" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>343</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="1">
+        <v>4</v>
+      </c>
+      <c r="F227" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>343</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
+        <v>21</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>343</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
+        <v>21</v>
+      </c>
+      <c r="D229" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2</v>
+      </c>
+      <c r="F229" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>343</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="1">
+        <v>3</v>
+      </c>
+      <c r="F230" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>343</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" s="1">
+        <v>4</v>
+      </c>
+      <c r="F231" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>343</v>
+      </c>
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>34</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>343</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>34</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2</v>
+      </c>
+      <c r="F233" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>343</v>
+      </c>
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>34</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="1">
+        <v>3</v>
+      </c>
+      <c r="F234" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>343</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="1">
+        <v>4</v>
+      </c>
+      <c r="F235" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/AmortTemplateUS.xlsx
+++ b/TestData/AmortTemplateUS.xlsx
@@ -15,6 +15,9 @@
     <sheet name="AmortTemplateGrid" sheetId="2" r:id="rId1"/>
     <sheet name="AmortTemplateSectionGrid" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AmortTemplateSectionGrid!$A$1:$F$235</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="41">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>Original Series</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Acquired Movies</t>
@@ -150,16 +150,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>Wrestling</t>
-  </si>
-  <si>
-    <t>Original Series (Season 2-3)</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -195,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -530,131 +522,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +567,7 @@
   <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +582,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -709,13 +605,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -729,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -749,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -769,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -789,13 +685,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -809,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -829,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -849,13 +745,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -869,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -889,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -909,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -929,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -949,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -969,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -989,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -1009,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -1029,13 +925,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1049,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1069,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1089,13 +985,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -1109,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1129,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1149,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1169,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -1189,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1209,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1229,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1249,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1269,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1289,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1309,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -1329,13 +1225,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -1349,13 +1245,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1369,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1389,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -1409,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -1429,13 +1325,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1449,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1469,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -1489,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
@@ -1509,13 +1405,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1529,13 +1425,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -1549,13 +1445,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -1569,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
@@ -1589,13 +1485,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1609,13 +1505,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -1629,13 +1525,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -1649,13 +1545,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -1669,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1689,13 +1585,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -1709,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -1729,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="1">
         <v>4</v>
@@ -1749,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1769,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -1789,13 +1685,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -1809,13 +1705,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
@@ -1829,13 +1725,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -1849,13 +1745,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -1869,13 +1765,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -1889,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
@@ -1909,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -1929,13 +1825,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -1949,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -1969,13 +1865,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -1989,13 +1885,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2009,13 +1905,13 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -2029,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -2049,13 +1945,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -2069,13 +1965,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2089,13 +1985,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -2109,13 +2005,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
@@ -2129,13 +2025,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -2149,13 +2045,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2169,13 +2065,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
@@ -2189,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -2209,13 +2105,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -2229,13 +2125,13 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -2249,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -2269,13 +2165,13 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -2289,13 +2185,13 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -2309,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2329,13 +2225,13 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -2349,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -2369,13 +2265,13 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1">
         <v>4</v>
@@ -2389,13 +2285,13 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -2409,13 +2305,13 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
@@ -2429,13 +2325,13 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -2449,13 +2345,13 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -2469,13 +2365,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -2489,13 +2385,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -2509,13 +2405,13 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -2529,13 +2425,13 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93" s="1">
         <v>4</v>
@@ -2549,13 +2445,13 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2569,13 +2465,13 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -2589,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -2609,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -2629,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2649,13 +2545,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -2669,13 +2565,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -2689,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" s="1">
         <v>4</v>
@@ -2709,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2729,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E103" s="1">
         <v>2</v>
@@ -2749,13 +2645,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -2769,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" s="1">
         <v>4</v>
@@ -2789,10 +2685,10 @@
         <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -2809,10 +2705,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -2829,10 +2725,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -2849,10 +2745,10 @@
         <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -2869,10 +2765,10 @@
         <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
@@ -2889,10 +2785,10 @@
         <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -2909,10 +2805,10 @@
         <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -2929,10 +2825,10 @@
         <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -2949,10 +2845,10 @@
         <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -2969,10 +2865,10 @@
         <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -2989,10 +2885,10 @@
         <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -3009,10 +2905,10 @@
         <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
@@ -3029,10 +2925,10 @@
         <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3049,10 +2945,10 @@
         <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
@@ -3069,7 +2965,7 @@
         <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -3089,7 +2985,7 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -3109,10 +3005,10 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
-      </c>
-      <c r="C122" t="s">
-        <v>34</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -3129,10 +3025,10 @@
         <v>41</v>
       </c>
       <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
-      </c>
-      <c r="C123" t="s">
-        <v>34</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -3149,7 +3045,7 @@
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3169,7 +3065,7 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -3189,10 +3085,10 @@
         <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
@@ -3209,10 +3105,10 @@
         <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -3229,10 +3125,10 @@
         <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -3249,10 +3145,10 @@
         <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
@@ -3269,10 +3165,10 @@
         <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
@@ -3289,10 +3185,10 @@
         <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
@@ -3309,13 +3205,13 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -3329,13 +3225,13 @@
         <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -3349,13 +3245,13 @@
         <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
@@ -3369,13 +3265,13 @@
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
@@ -3389,13 +3285,13 @@
         <v>51</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -3409,13 +3305,13 @@
         <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E137" s="1">
         <v>2</v>
@@ -3429,13 +3325,13 @@
         <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E138" s="1">
         <v>3</v>
@@ -3449,13 +3345,13 @@
         <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
@@ -3469,13 +3365,13 @@
         <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -3489,13 +3385,13 @@
         <v>51</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E141" s="1">
         <v>2</v>
@@ -3509,13 +3405,13 @@
         <v>51</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1">
         <v>3</v>
@@ -3529,13 +3425,13 @@
         <v>51</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
@@ -3549,13 +3445,13 @@
         <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -3569,13 +3465,13 @@
         <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
@@ -3589,13 +3485,13 @@
         <v>51</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
@@ -3609,13 +3505,13 @@
         <v>51</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" s="1">
         <v>4</v>
@@ -3629,13 +3525,13 @@
         <v>51</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -3649,13 +3545,13 @@
         <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149" s="1">
         <v>2</v>
@@ -3669,13 +3565,13 @@
         <v>51</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E150" s="1">
         <v>3</v>
@@ -3689,13 +3585,13 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E151" s="1">
         <v>4</v>
@@ -3709,13 +3605,13 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -3729,13 +3625,13 @@
         <v>51</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153" s="1">
         <v>2</v>
@@ -3749,13 +3645,13 @@
         <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E154" s="1">
         <v>3</v>
@@ -3769,13 +3665,13 @@
         <v>51</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E155" s="1">
         <v>4</v>
@@ -3789,13 +3685,13 @@
         <v>51</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -3809,13 +3705,13 @@
         <v>51</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157" s="1">
         <v>2</v>
@@ -3829,13 +3725,13 @@
         <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E158" s="1">
         <v>3</v>
@@ -3849,13 +3745,13 @@
         <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E159" s="1">
         <v>4</v>
@@ -3869,13 +3765,13 @@
         <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -3889,13 +3785,13 @@
         <v>51</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161" s="1">
         <v>2</v>
@@ -3909,13 +3805,13 @@
         <v>51</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E162" s="1">
         <v>3</v>
@@ -3929,13 +3825,13 @@
         <v>51</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E163" s="1">
         <v>4</v>
@@ -3949,13 +3845,13 @@
         <v>51</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
         <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -3969,13 +3865,13 @@
         <v>51</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E165" s="1">
         <v>2</v>
@@ -3989,13 +3885,13 @@
         <v>51</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -4009,13 +3905,13 @@
         <v>51</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167" s="1">
         <v>4</v>
@@ -4029,13 +3925,13 @@
         <v>51</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -4049,13 +3945,13 @@
         <v>51</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
@@ -4069,13 +3965,13 @@
         <v>51</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E170" s="1">
         <v>3</v>
@@ -4089,13 +3985,13 @@
         <v>51</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E171" s="1">
         <v>4</v>
@@ -4109,13 +4005,13 @@
         <v>51</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -4129,13 +4025,13 @@
         <v>51</v>
       </c>
       <c r="B173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -4149,13 +4045,13 @@
         <v>51</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
@@ -4169,13 +4065,13 @@
         <v>51</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E175" s="1">
         <v>4</v>
@@ -4189,7 +4085,7 @@
         <v>68</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
         <v>15</v>
@@ -4209,7 +4105,7 @@
         <v>68</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -4229,7 +4125,7 @@
         <v>68</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -4249,7 +4145,7 @@
         <v>68</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
@@ -4272,7 +4168,7 @@
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
@@ -4292,7 +4188,7 @@
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
@@ -4312,7 +4208,7 @@
         <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
@@ -4332,7 +4228,7 @@
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
@@ -4352,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -4372,7 +4268,7 @@
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -4392,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -4412,7 +4308,7 @@
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -4432,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -4452,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -4472,7 +4368,7 @@
         <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
@@ -4492,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
@@ -4512,7 +4408,7 @@
         <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
@@ -4532,7 +4428,7 @@
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
@@ -4592,7 +4488,7 @@
         <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
@@ -4612,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -4672,7 +4568,7 @@
         <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
@@ -4692,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -4712,7 +4608,7 @@
         <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
@@ -4732,7 +4628,7 @@
         <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -4752,7 +4648,7 @@
         <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
@@ -4772,7 +4668,7 @@
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -4789,10 +4685,10 @@
         <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
@@ -4809,10 +4705,10 @@
         <v>79</v>
       </c>
       <c r="B207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -4829,10 +4725,10 @@
         <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
@@ -4849,10 +4745,10 @@
         <v>79</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
@@ -4869,10 +4765,10 @@
         <v>79</v>
       </c>
       <c r="B210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -4889,10 +4785,10 @@
         <v>79</v>
       </c>
       <c r="B211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
@@ -4909,10 +4805,10 @@
         <v>79</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -4929,10 +4825,10 @@
         <v>79</v>
       </c>
       <c r="B213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
@@ -4949,7 +4845,7 @@
         <v>79</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
         <v>15</v>
@@ -4969,7 +4865,7 @@
         <v>79</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
@@ -4989,10 +4885,10 @@
         <v>79</v>
       </c>
       <c r="B216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -5009,10 +4905,10 @@
         <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -5029,7 +4925,7 @@
         <v>79</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C218" t="s">
         <v>10</v>
@@ -5049,7 +4945,7 @@
         <v>79</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
         <v>10</v>
@@ -5069,7 +4965,7 @@
         <v>342</v>
       </c>
       <c r="B220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
@@ -5089,7 +4985,7 @@
         <v>342</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -5109,7 +5005,7 @@
         <v>342</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
@@ -5129,7 +5025,7 @@
         <v>342</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
@@ -5149,10 +5045,10 @@
         <v>343</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
@@ -5169,10 +5065,10 @@
         <v>343</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
@@ -5189,10 +5085,10 @@
         <v>343</v>
       </c>
       <c r="B226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -5209,10 +5105,10 @@
         <v>343</v>
       </c>
       <c r="B227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
@@ -5229,10 +5125,10 @@
         <v>343</v>
       </c>
       <c r="B228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -5249,10 +5145,10 @@
         <v>343</v>
       </c>
       <c r="B229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
@@ -5269,10 +5165,10 @@
         <v>343</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -5289,10 +5185,10 @@
         <v>343</v>
       </c>
       <c r="B231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -5309,10 +5205,10 @@
         <v>343</v>
       </c>
       <c r="B232" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -5329,10 +5225,10 @@
         <v>343</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
@@ -5349,10 +5245,10 @@
         <v>343</v>
       </c>
       <c r="B234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -5369,10 +5265,10 @@
         <v>343</v>
       </c>
       <c r="B235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
